--- a/docs/CS411 Time Estimates.xlsx
+++ b/docs/CS411 Time Estimates.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16179\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A3D355-BBAB-41E6-8B6C-4763E410E565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Kev" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Perry" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Nathan" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Main" sheetId="4" r:id="rId7"/>
+    <sheet name="Kev" sheetId="1" r:id="rId1"/>
+    <sheet name="Perry" sheetId="2" r:id="rId2"/>
+    <sheet name="Nathan" sheetId="3" r:id="rId3"/>
+    <sheet name="Main" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Task</t>
   </si>
@@ -52,111 +61,173 @@
     <t>Return viable playlists</t>
   </si>
   <si>
+    <t>Estimated time (hrs)</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Implement Database Connectors</t>
+  </si>
+  <si>
+    <t>Implement Spotify Backend connections</t>
+  </si>
+  <si>
+    <t>Implement OAuth integration</t>
+  </si>
+  <si>
+    <t>Integrate OAuth with Spotify API</t>
+  </si>
+  <si>
+    <t>Will need to rewrite dummy auth keys into actual OAuth objects</t>
+  </si>
+  <si>
+    <t>User Story #1</t>
+  </si>
+  <si>
+    <t>Implement Riot API calls to return champion ID from summoner name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement a text bar to display the name of the current champion </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time (hours)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Be familiar with Spotify API and Riot API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Make a Spotify login system more scalable </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implement a summoner name search bar that works across different browsers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Generate database with champion IDs, names, playlists, and key words</t>
-  </si>
-  <si>
-    <t>Estimated time (hrs)</t>
-  </si>
-  <si>
-    <t>Comments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connent the data with backend to return champion ID from summoner name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Make the playlist display more scalable </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graphically design the layout of the website</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Implement Database Connectors</t>
-  </si>
-  <si>
-    <t>Implement Spotify Backend connections</t>
-  </si>
-  <si>
-    <t>Implement OAuth integration</t>
-  </si>
-  <si>
-    <t>Integrate OAuth with Spotify API</t>
-  </si>
-  <si>
-    <t>Will need to rewrite dummy auth keys into actual OAuth objects</t>
-  </si>
-  <si>
-    <t>User Story #1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use champion ID to fetch static playlist link</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task (Front end)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task (Database)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task (Backend)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6D9EEB"/>
-        <bgColor rgb="FF6D9EEB"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -346,102 +417,139 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="48.5"/>
-    <col customWidth="1" min="2" max="2" width="12.25"/>
-    <col customWidth="1" min="3" max="3" width="18.13"/>
+    <col min="1" max="1" width="63.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2.0</v>
-      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="62.25"/>
+    <col min="1" max="1" width="62.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -449,7 +557,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -457,7 +565,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -465,7 +573,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -473,97 +581,101 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="34.25"/>
-    <col customWidth="1" min="2" max="2" width="19.0"/>
-    <col customWidth="1" min="3" max="3" width="51.0"/>
+    <col min="1" max="1" width="34.26953125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B7" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -571,7 +683,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -579,15 +691,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B10" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -595,33 +707,35 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.88"/>
+    <col min="1" max="1" width="30.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,58 +743,59 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="B4" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>